--- a/inst/results/data_contam/PAH/general_eval_PAH_ww.xlsx
+++ b/inst/results/data_contam/PAH/general_eval_PAH_ww.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -470,4 +471,720 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ESTUARY</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PARAMETRE_LIBELLE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>break_dates</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>last_p_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>last_slope</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>short_last_trend</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EAC_OSPAR_ng_gdw</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EQS_VGE_ng_gww</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>median_1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>median_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>long_term_trend</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fluoranthène</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1998.250000000264</v>
+      </c>
+      <c r="D2">
+        <v>0.1105354751898876</v>
+      </c>
+      <c r="E2">
+        <v>-0.04166</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G2">
+        <v>110</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.394</t>
+        </is>
+      </c>
+      <c r="J2">
+        <v>5.247</v>
+      </c>
+      <c r="K2">
+        <v>4.533</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fluoranthène</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>2013.328224431779</v>
+      </c>
+      <c r="D3">
+        <v>0.4144898282063105</v>
+      </c>
+      <c r="E3">
+        <v>0.080871</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>110</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.00665</t>
+        </is>
+      </c>
+      <c r="J3">
+        <v>11.24</v>
+      </c>
+      <c r="K3">
+        <v>5.267</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fluoranthène</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>2011.999972688596</v>
+      </c>
+      <c r="D4">
+        <v>0.6879206341659896</v>
+      </c>
+      <c r="E4">
+        <v>0.12043</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="J4">
+        <v>44.54</v>
+      </c>
+      <c r="K4">
+        <v>19.74</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Benzo(a)pyrène</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>2013.000546385066</v>
+      </c>
+      <c r="D5">
+        <v>0.2604017078047983</v>
+      </c>
+      <c r="E5">
+        <v>-0.035</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5.2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benzo(a)pyrène</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>2001.591511932413</v>
+      </c>
+      <c r="D6">
+        <v>0.02465516598798441</v>
+      </c>
+      <c r="E6">
+        <v>-0.018939</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.076</t>
+        </is>
+      </c>
+      <c r="J6">
+        <v>1.4</v>
+      </c>
+      <c r="K6">
+        <v>6.2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benzo(a)pyrène</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>2004.99978277489</v>
+      </c>
+      <c r="D7">
+        <v>0.04732054986959405</v>
+      </c>
+      <c r="E7">
+        <v>-0.13216</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="J7">
+        <v>15.43</v>
+      </c>
+      <c r="K7">
+        <v>40.44</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anthracène</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>2001.138478387609</v>
+      </c>
+      <c r="D8">
+        <v>0.03477609226932599</v>
+      </c>
+      <c r="E8">
+        <v>0.0092567</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>↑</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>290</v>
+      </c>
+      <c r="H8">
+        <v>47.47</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.198</t>
+        </is>
+      </c>
+      <c r="J8">
+        <v>0.316</v>
+      </c>
+      <c r="K8">
+        <v>0.494</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anthracène</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>2018.000721383626</v>
+      </c>
+      <c r="D9">
+        <v>0.4124951214204015</v>
+      </c>
+      <c r="E9">
+        <v>-0.081542</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>290</v>
+      </c>
+      <c r="H9">
+        <v>47.47</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.946</t>
+        </is>
+      </c>
+      <c r="J9">
+        <v>0.197</v>
+      </c>
+      <c r="K9">
+        <v>0.2739</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anthracène</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>1996.468770374522</v>
+      </c>
+      <c r="D10">
+        <v>0.09424218178674718</v>
+      </c>
+      <c r="E10">
+        <v>0.014186</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>290</v>
+      </c>
+      <c r="H10">
+        <v>47.47</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="J10">
+        <v>1.044</v>
+      </c>
+      <c r="K10">
+        <v>1.222</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Naphtalène</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>2000.000063835634</v>
+      </c>
+      <c r="D11">
+        <v>0.22472178396752</v>
+      </c>
+      <c r="E11">
+        <v>-0.65906</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>340</v>
+      </c>
+      <c r="H11">
+        <v>19.7</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="J11">
+        <v>41.47</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Naphtalène</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>2001.131898526487</v>
+      </c>
+      <c r="D12">
+        <v>0.56851186997262</v>
+      </c>
+      <c r="E12">
+        <v>-0.058939</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>340</v>
+      </c>
+      <c r="H12">
+        <v>19.7</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.00902</t>
+        </is>
+      </c>
+      <c r="J12">
+        <v>13.31</v>
+      </c>
+      <c r="K12">
+        <v>0.7107</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Naphtalène</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>2000.000300163922</v>
+      </c>
+      <c r="D13">
+        <v>0.04388629498155386</v>
+      </c>
+      <c r="E13">
+        <v>-0.6286</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>340</v>
+      </c>
+      <c r="H13">
+        <v>19.7</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.00388</t>
+        </is>
+      </c>
+      <c r="J13">
+        <v>21.05</v>
+      </c>
+      <c r="K13">
+        <v>0.6371</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>↓</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>